--- a/Data/Data RHTM Study.xlsx
+++ b/Data/Data RHTM Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pxgo_\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25160BD0-5621-4C4F-806F-284DE00455C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97706781-CE9D-46D3-BBD0-301052162833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="720" windowWidth="17280" windowHeight="10824" xr2:uid="{BDD72DFF-8750-414F-B4A4-1FF3E0A6C2BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDD72DFF-8750-414F-B4A4-1FF3E0A6C2BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="21">
   <si>
     <t>Number of observations</t>
   </si>
@@ -86,16 +86,7 @@
     <t>ΔT ≥ 50°C</t>
   </si>
   <si>
-    <t>Sum dT (°C)</t>
-  </si>
-  <si>
     <t>CTD (°C.h)</t>
-  </si>
-  <si>
-    <t>Total of hours</t>
-  </si>
-  <si>
-    <t>Total counts</t>
   </si>
   <si>
     <t>SE</t>
@@ -103,12 +94,38 @@
   <si>
     <t>NW</t>
   </si>
+  <si>
+    <r>
+      <t>Sum ΔT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (°C)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hours of radiator operation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,25 +139,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -222,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -233,12 +244,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -247,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,39 +590,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89BB59C-322C-4366-A8EB-4A5565A153AC}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="6" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -658,24 +669,21 @@
         <v>15</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="Q2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3">
         <v>20</v>
@@ -716,22 +724,19 @@
       <c r="O3" s="3">
         <v>23013</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="7">
         <v>5753</v>
       </c>
       <c r="Q3" s="3">
         <v>156</v>
       </c>
-      <c r="R3" s="3">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3">
         <v>279</v>
@@ -772,22 +777,19 @@
       <c r="O4" s="3">
         <v>5545</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="7">
         <v>1386</v>
       </c>
       <c r="Q4" s="3">
         <v>97</v>
       </c>
-      <c r="R4" s="3">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>32</v>
@@ -828,22 +830,19 @@
       <c r="O5" s="3">
         <v>16848</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="7">
         <v>4212</v>
       </c>
       <c r="Q5" s="3">
         <v>109</v>
       </c>
-      <c r="R5" s="3">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>44</v>
@@ -884,22 +883,19 @@
       <c r="O6" s="3">
         <v>8125</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="7">
         <v>2031</v>
       </c>
       <c r="Q6" s="3">
         <v>71</v>
       </c>
-      <c r="R6" s="3">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>83</v>
@@ -940,22 +936,19 @@
       <c r="O7" s="3">
         <v>10999</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="7">
         <v>2750</v>
       </c>
       <c r="Q7" s="3">
         <v>90</v>
       </c>
-      <c r="R7" s="3">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>113</v>
@@ -996,22 +989,19 @@
       <c r="O8" s="3">
         <v>7123</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <v>1781</v>
       </c>
       <c r="Q8" s="3">
         <v>128</v>
       </c>
-      <c r="R8" s="3">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>45</v>
@@ -1052,22 +1042,19 @@
       <c r="O9" s="3">
         <v>18276</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="7">
         <v>4569</v>
       </c>
       <c r="Q9" s="3">
         <v>150</v>
       </c>
-      <c r="R9" s="3">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>48</v>
@@ -1108,22 +1095,19 @@
       <c r="O10" s="3">
         <v>19630</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <v>4908</v>
       </c>
       <c r="Q10" s="3">
         <v>156</v>
       </c>
-      <c r="R10" s="3">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
         <v>21</v>
@@ -1164,22 +1148,19 @@
       <c r="O11" s="3">
         <v>5720</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="7">
         <v>1430</v>
       </c>
       <c r="Q11" s="3">
         <v>43</v>
       </c>
-      <c r="R11" s="3">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
         <v>8</v>
@@ -1220,22 +1201,19 @@
       <c r="O12" s="3">
         <v>26120</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="7">
         <v>6530</v>
       </c>
       <c r="Q12" s="3">
         <v>156</v>
       </c>
-      <c r="R12" s="3">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3">
         <v>28</v>
@@ -1276,22 +1254,19 @@
       <c r="O13" s="3">
         <v>18753</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="7">
         <v>4688</v>
       </c>
       <c r="Q13" s="3">
         <v>156</v>
       </c>
-      <c r="R13" s="3">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1332,22 +1307,19 @@
       <c r="O14" s="3">
         <v>25405</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="7">
         <v>6351</v>
       </c>
       <c r="Q14" s="3">
         <v>156</v>
       </c>
-      <c r="R14" s="3">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3">
         <v>95</v>
@@ -1388,22 +1360,19 @@
       <c r="O15" s="3">
         <v>3782</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="7">
         <v>946</v>
       </c>
       <c r="Q15" s="3">
         <v>67</v>
       </c>
-      <c r="R15" s="3">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
@@ -1444,22 +1413,19 @@
       <c r="O16" s="3">
         <v>16850</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="7">
         <v>4213</v>
       </c>
       <c r="Q16" s="3">
         <v>156</v>
       </c>
-      <c r="R16" s="3">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
         <v>24</v>
@@ -1500,22 +1466,19 @@
       <c r="O17" s="3">
         <v>13458</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="7">
         <v>3365</v>
       </c>
       <c r="Q17" s="3">
         <v>117</v>
       </c>
-      <c r="R17" s="3">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>91</v>
@@ -1556,22 +1519,19 @@
       <c r="O18" s="3">
         <v>13984</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="7">
         <v>3496</v>
       </c>
       <c r="Q18" s="3">
         <v>139</v>
       </c>
-      <c r="R18" s="3">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <v>16</v>
@@ -1612,22 +1572,19 @@
       <c r="O19" s="3">
         <v>29415</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="7">
         <v>7354</v>
       </c>
       <c r="Q19" s="3">
         <v>156</v>
       </c>
-      <c r="R19" s="3">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3">
         <v>89</v>
@@ -1668,22 +1625,19 @@
       <c r="O20" s="3">
         <v>13158</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="7">
         <v>3290</v>
       </c>
       <c r="Q20" s="3">
         <v>120</v>
       </c>
-      <c r="R20" s="3">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
         <v>16</v>
@@ -1724,22 +1678,19 @@
       <c r="O21" s="3">
         <v>18230</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="7">
         <v>4558</v>
       </c>
       <c r="Q21" s="3">
         <v>146</v>
       </c>
-      <c r="R21" s="3">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
         <v>88</v>
@@ -1780,22 +1731,19 @@
       <c r="O22" s="3">
         <v>21338</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="7">
         <v>5335</v>
       </c>
       <c r="Q22" s="3">
         <v>156</v>
       </c>
-      <c r="R22" s="3">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3">
         <v>56</v>
@@ -1836,22 +1784,19 @@
       <c r="O23" s="3">
         <v>17408</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="7">
         <v>4352</v>
       </c>
       <c r="Q23" s="3">
         <v>115</v>
       </c>
-      <c r="R23" s="3">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C24" s="3">
         <v>17</v>
@@ -1892,22 +1837,19 @@
       <c r="O24" s="3">
         <v>28382</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="7">
         <v>7096</v>
       </c>
       <c r="Q24" s="3">
         <v>156</v>
       </c>
-      <c r="R24" s="3">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
@@ -1948,22 +1890,19 @@
       <c r="O25" s="3">
         <v>18521</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="7">
         <v>4630</v>
       </c>
       <c r="Q25" s="3">
         <v>129</v>
       </c>
-      <c r="R25" s="3">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C26" s="3">
         <v>31</v>
@@ -2004,22 +1943,19 @@
       <c r="O26" s="3">
         <v>20388</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="7">
         <v>5097</v>
       </c>
       <c r="Q26" s="3">
         <v>156</v>
       </c>
-      <c r="R26" s="3">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3">
         <v>26</v>
@@ -2060,22 +1996,19 @@
       <c r="O27" s="3">
         <v>18103</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="7">
         <v>4526</v>
       </c>
       <c r="Q27" s="3">
         <v>106</v>
       </c>
-      <c r="R27" s="3">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3">
         <v>35</v>
@@ -2116,22 +2049,19 @@
       <c r="O28" s="3">
         <v>23791</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="7">
         <v>5948</v>
       </c>
       <c r="Q28" s="3">
         <v>156</v>
       </c>
-      <c r="R28" s="3">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C29" s="3">
         <v>67</v>
@@ -2172,22 +2102,19 @@
       <c r="O29" s="3">
         <v>14301</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="7">
         <v>3575</v>
       </c>
       <c r="Q29" s="3">
         <v>130</v>
       </c>
-      <c r="R29" s="3">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3">
         <v>111</v>
@@ -2228,22 +2155,19 @@
       <c r="O30" s="3">
         <v>2850</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="7">
         <v>713</v>
       </c>
       <c r="Q30" s="3">
         <v>50</v>
       </c>
-      <c r="R30" s="3">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C31" s="3">
         <v>8</v>
@@ -2284,22 +2208,19 @@
       <c r="O31" s="3">
         <v>19017</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="7">
         <v>4754</v>
       </c>
       <c r="Q31" s="3">
         <v>144</v>
       </c>
-      <c r="R31" s="3">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3">
         <v>10</v>
@@ -2340,14 +2261,11 @@
       <c r="O32" s="3">
         <v>16473</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="7">
         <v>4118</v>
       </c>
       <c r="Q32" s="3">
         <v>122</v>
-      </c>
-      <c r="R32" s="3">
-        <v>489</v>
       </c>
     </row>
   </sheetData>
